--- a/data/strategies/申万场外策略结果.xlsx
+++ b/data/strategies/申万场外策略结果.xlsx
@@ -18,14 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="167">
+  <si>
+    <t>汇添富中证主要消费ETF联接</t>
+  </si>
   <si>
     <t>富国中证军工</t>
   </si>
   <si>
-    <t>汇添富中证主要消费ETF联接</t>
-  </si>
-  <si>
     <t>顺周期中的Alpha与Beta</t>
   </si>
   <si>
@@ -56,73 +56,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>-1.11%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>9.07%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>-5.93%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>14.85%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>18.18%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>26.51%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>-4.84%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>1.65%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>-9.26%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>19.22%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>18.57%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>26.32%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -131,46 +128,46 @@
     <t>场外代码</t>
   </si>
   <si>
+    <t>000248.OF</t>
+  </si>
+  <si>
     <t>161024.OF</t>
   </si>
   <si>
-    <t>000248.OF</t>
-  </si>
-  <si>
-    <t>4.69%</t>
-  </si>
-  <si>
-    <t>-5.98%</t>
-  </si>
-  <si>
-    <t>12.01%</t>
-  </si>
-  <si>
-    <t>6.46%</t>
-  </si>
-  <si>
-    <t>-9.03%</t>
-  </si>
-  <si>
-    <t>-2.83%</t>
-  </si>
-  <si>
-    <t>25.29%</t>
-  </si>
-  <si>
-    <t>16.54%</t>
-  </si>
-  <si>
-    <t>24.35%</t>
-  </si>
-  <si>
-    <t>20.58%</t>
-  </si>
-  <si>
-    <t>32.25%</t>
-  </si>
-  <si>
-    <t>28.64%</t>
+    <t>-9.18%</t>
+  </si>
+  <si>
+    <t>-0.00%</t>
+  </si>
+  <si>
+    <t>-3.54%</t>
+  </si>
+  <si>
+    <t>7.53%</t>
+  </si>
+  <si>
+    <t>-8.61%</t>
+  </si>
+  <si>
+    <t>-9.91%</t>
+  </si>
+  <si>
+    <t>18.20%</t>
+  </si>
+  <si>
+    <t>32.58%</t>
+  </si>
+  <si>
+    <t>20.31%</t>
+  </si>
+  <si>
+    <t>26.82%</t>
+  </si>
+  <si>
+    <t>28.26%</t>
+  </si>
+  <si>
+    <t>32.80%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -185,15 +182,15 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
   </si>
   <si>
     <t>600519.SH</t>
   </si>
   <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
     <t>600887.SH</t>
   </si>
   <si>
@@ -209,111 +206,111 @@
     <t>002714.SZ</t>
   </si>
   <si>
+    <t>600809.SH</t>
+  </si>
+  <si>
     <t>002179.SZ</t>
   </si>
   <si>
-    <t>600809.SH</t>
+    <t>002304.SZ</t>
+  </si>
+  <si>
+    <t>601989.SH</t>
   </si>
   <si>
     <t>000768.SZ</t>
   </si>
   <si>
-    <t>601989.SH</t>
-  </si>
-  <si>
-    <t>002304.SZ</t>
-  </si>
-  <si>
     <t>600760.SH</t>
   </si>
   <si>
+    <t>002625.SZ</t>
+  </si>
+  <si>
     <t>002414.SZ</t>
   </si>
   <si>
     <t>000547.SZ</t>
   </si>
   <si>
+    <t>300699.SZ</t>
+  </si>
+  <si>
+    <t>000733.SZ</t>
+  </si>
+  <si>
+    <t>002311.SZ</t>
+  </si>
+  <si>
     <t>600862.SH</t>
   </si>
   <si>
-    <t>002013.SZ</t>
-  </si>
-  <si>
-    <t>000733.SZ</t>
-  </si>
-  <si>
-    <t>002465.SZ</t>
-  </si>
-  <si>
-    <t>300699.SZ</t>
-  </si>
-  <si>
-    <t>5.50%</t>
-  </si>
-  <si>
-    <t>5.24%</t>
-  </si>
-  <si>
-    <t>4.53%</t>
-  </si>
-  <si>
-    <t>4.20%</t>
-  </si>
-  <si>
-    <t>3.81%</t>
-  </si>
-  <si>
-    <t>3.28%</t>
-  </si>
-  <si>
-    <t>3.15%</t>
-  </si>
-  <si>
-    <t>3.10%</t>
-  </si>
-  <si>
-    <t>3.05%</t>
-  </si>
-  <si>
-    <t>2.82%</t>
-  </si>
-  <si>
-    <t>2.77%</t>
-  </si>
-  <si>
-    <t>2.48%</t>
-  </si>
-  <si>
-    <t>2.38%</t>
-  </si>
-  <si>
-    <t>1.87%</t>
-  </si>
-  <si>
-    <t>1.76%</t>
-  </si>
-  <si>
-    <t>1.54%</t>
-  </si>
-  <si>
-    <t>1.51%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.35%</t>
-  </si>
-  <si>
-    <t>1.34%</t>
+    <t>508.70%</t>
+  </si>
+  <si>
+    <t>483.95%</t>
+  </si>
+  <si>
+    <t>468.50%</t>
+  </si>
+  <si>
+    <t>373.70%</t>
+  </si>
+  <si>
+    <t>361.40%</t>
+  </si>
+  <si>
+    <t>340.80%</t>
+  </si>
+  <si>
+    <t>334.70%</t>
+  </si>
+  <si>
+    <t>326.60%</t>
+  </si>
+  <si>
+    <t>286.40%</t>
+  </si>
+  <si>
+    <t>261.20%</t>
+  </si>
+  <si>
+    <t>247.60%</t>
+  </si>
+  <si>
+    <t>239.75%</t>
+  </si>
+  <si>
+    <t>233.70%</t>
+  </si>
+  <si>
+    <t>177.25%</t>
+  </si>
+  <si>
+    <t>170.60%</t>
+  </si>
+  <si>
+    <t>159.70%</t>
+  </si>
+  <si>
+    <t>155.65%</t>
+  </si>
+  <si>
+    <t>145.00%</t>
+  </si>
+  <si>
+    <t>141.75%</t>
+  </si>
+  <si>
+    <t>141.25%</t>
+  </si>
+  <si>
+    <t>五粮液</t>
   </si>
   <si>
     <t>贵州茅台</t>
   </si>
   <si>
-    <t>五粮液</t>
-  </si>
-  <si>
     <t>伊利股份</t>
   </si>
   <si>
@@ -329,51 +326,51 @@
     <t>牧原股份</t>
   </si>
   <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
     <t>中航光电</t>
   </si>
   <si>
-    <t>山西汾酒</t>
+    <t>洋河股份</t>
+  </si>
+  <si>
+    <t>中国重工</t>
   </si>
   <si>
     <t>中航西飞</t>
   </si>
   <si>
-    <t>中国重工</t>
-  </si>
-  <si>
-    <t>洋河股份</t>
-  </si>
-  <si>
     <t>中航沈飞</t>
   </si>
   <si>
+    <t>光启技术</t>
+  </si>
+  <si>
     <t>高德红外</t>
   </si>
   <si>
     <t>航天发展</t>
   </si>
   <si>
+    <t>光威复材</t>
+  </si>
+  <si>
+    <t>振华科技</t>
+  </si>
+  <si>
+    <t>海大集团</t>
+  </si>
+  <si>
     <t>中航高科</t>
   </si>
   <si>
-    <t>中航机电</t>
-  </si>
-  <si>
-    <t>振华科技</t>
-  </si>
-  <si>
-    <t>海格通信</t>
-  </si>
-  <si>
-    <t>光威复材</t>
+    <t>酒类</t>
   </si>
   <si>
     <t>茅台酒</t>
   </si>
   <si>
-    <t>酒类</t>
-  </si>
-  <si>
     <t>液体乳</t>
   </si>
   <si>
@@ -389,16 +386,19 @@
     <t>生猪</t>
   </si>
   <si>
+    <t>白酒</t>
+  </si>
+  <si>
     <t>电连接器</t>
   </si>
   <si>
-    <t>白酒</t>
+    <t>海洋运输装备</t>
   </si>
   <si>
     <t>航空产品</t>
   </si>
   <si>
-    <t>海洋运输装备</t>
+    <t>超材料产品</t>
   </si>
   <si>
     <t>红外热成像仪及综合光电系统</t>
@@ -407,76 +407,76 @@
     <t>电磁科技产品</t>
   </si>
   <si>
+    <t>碳纤维及织物</t>
+  </si>
+  <si>
+    <t>新型电子元器件</t>
+  </si>
+  <si>
+    <t>饲料</t>
+  </si>
+  <si>
     <t>复合材料</t>
   </si>
   <si>
-    <t>新型电子元器件</t>
-  </si>
-  <si>
-    <t>无线通信</t>
-  </si>
-  <si>
-    <t>碳纤维及织物</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>-13.35%</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>-13.36%</t>
-  </si>
-  <si>
-    <t>18.14%</t>
-  </si>
-  <si>
-    <t>6.67%</t>
-  </si>
-  <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>-21.93%</t>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>-19.50%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-23.57%</t>
+  </si>
+  <si>
+    <t>7.27%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
   </si>
   <si>
     <t>0.25%</t>
   </si>
   <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>13.62%</t>
-  </si>
-  <si>
-    <t>-2.88%</t>
-  </si>
-  <si>
-    <t>-26.14%</t>
-  </si>
-  <si>
-    <t>6.21%</t>
-  </si>
-  <si>
-    <t>-0.96%</t>
-  </si>
-  <si>
-    <t>5.19%</t>
-  </si>
-  <si>
-    <t>-8.90%</t>
-  </si>
-  <si>
-    <t>-13.68%</t>
+    <t>-28.18%</t>
+  </si>
+  <si>
+    <t>26.17%</t>
+  </si>
+  <si>
+    <t>9.05%</t>
+  </si>
+  <si>
+    <t>-6.60%</t>
+  </si>
+  <si>
+    <t>-30.63%</t>
+  </si>
+  <si>
+    <t>-12.69%</t>
+  </si>
+  <si>
+    <t>14.90%</t>
+  </si>
+  <si>
+    <t>13.38%</t>
+  </si>
+  <si>
+    <t>5.64%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -488,31 +488,37 @@
     <t>食品饮料</t>
   </si>
   <si>
-    <t>军工</t>
+    <t>国防军工</t>
   </si>
   <si>
     <t>饲料养殖</t>
   </si>
   <si>
-    <t>电子</t>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
   </si>
   <si>
     <t>化工</t>
   </si>
   <si>
-    <t>48.78%</t>
-  </si>
-  <si>
-    <t>40.10%</t>
-  </si>
-  <si>
-    <t>5.51%</t>
-  </si>
-  <si>
-    <t>3.27%</t>
-  </si>
-  <si>
-    <t>2.34%</t>
+    <t>27.51%</t>
+  </si>
+  <si>
+    <t>18.27%</t>
+  </si>
+  <si>
+    <t>4.76%</t>
+  </si>
+  <si>
+    <t>1.77%</t>
+  </si>
+  <si>
+    <t>1.71%</t>
+  </si>
+  <si>
+    <t>1.56%</t>
   </si>
 </sst>
 </file>
@@ -876,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -927,13 +933,13 @@
         <v>44200</v>
       </c>
       <c r="B3">
-        <v>1.062350119904077</v>
+        <v>1.03771535910305</v>
       </c>
       <c r="C3">
-        <v>1.03771535910305</v>
+        <v>1.062381554011371</v>
       </c>
       <c r="D3">
-        <v>1.050032739503563</v>
+        <v>1.05004845655721</v>
       </c>
       <c r="E3">
         <v>1.018168368380631</v>
@@ -947,13 +953,13 @@
         <v>44201</v>
       </c>
       <c r="B4">
-        <v>1.071143085531575</v>
+        <v>1.088139473452496</v>
       </c>
       <c r="C4">
-        <v>1.088139473452496</v>
+        <v>1.071172878500737</v>
       </c>
       <c r="D4">
-        <v>1.079641279492036</v>
+        <v>1.079656175976617</v>
       </c>
       <c r="E4">
         <v>1.027111201157197</v>
@@ -967,13 +973,13 @@
         <v>44202</v>
       </c>
       <c r="B5">
-        <v>1.087130295763389</v>
+        <v>1.09644565759737</v>
       </c>
       <c r="C5">
-        <v>1.09644565759737</v>
+        <v>1.087123604969467</v>
       </c>
       <c r="D5">
-        <v>1.09178797668038</v>
+        <v>1.091784631283419</v>
       </c>
       <c r="E5">
         <v>1.025290909062353</v>
@@ -987,13 +993,13 @@
         <v>44203</v>
       </c>
       <c r="B6">
-        <v>1.112709832134293</v>
+        <v>1.110211029908133</v>
       </c>
       <c r="C6">
-        <v>1.110211029908133</v>
+        <v>1.112707938513371</v>
       </c>
       <c r="D6">
-        <v>1.111460431021213</v>
+        <v>1.111459484210752</v>
       </c>
       <c r="E6">
         <v>1.026858339183711</v>
@@ -1007,13 +1013,13 @@
         <v>44204</v>
       </c>
       <c r="B7">
-        <v>1.084732214228617</v>
+        <v>1.080948607320008</v>
       </c>
       <c r="C7">
-        <v>1.080948607320008</v>
+        <v>1.084754685196884</v>
       </c>
       <c r="D7">
-        <v>1.082840410774313</v>
+        <v>1.082851646258446</v>
       </c>
       <c r="E7">
         <v>1.029917812005761</v>
@@ -1027,13 +1033,13 @@
         <v>44207</v>
       </c>
       <c r="B8">
-        <v>1.051159072741807</v>
+        <v>1.047577118370462</v>
       </c>
       <c r="C8">
-        <v>1.047577118370462</v>
+        <v>1.051168667087808</v>
       </c>
       <c r="D8">
-        <v>1.049368095556134</v>
+        <v>1.049372892729135</v>
       </c>
       <c r="E8">
         <v>1.013866573688848</v>
@@ -1047,13 +1053,13 @@
         <v>44208</v>
       </c>
       <c r="B9">
-        <v>1.091127098321343</v>
+        <v>1.069736726248129</v>
       </c>
       <c r="C9">
-        <v>1.069736726248129</v>
+        <v>1.091124447252053</v>
       </c>
       <c r="D9">
-        <v>1.080431912284736</v>
+        <v>1.080430586750091</v>
       </c>
       <c r="E9">
         <v>1.027660901099557</v>
@@ -1067,13 +1073,13 @@
         <v>44209</v>
       </c>
       <c r="B10">
-        <v>1.075939248601119</v>
+        <v>1.058201989962138</v>
       </c>
       <c r="C10">
-        <v>1.058201989962138</v>
+        <v>1.075963360707517</v>
       </c>
       <c r="D10">
-        <v>1.067070619281629</v>
+        <v>1.067082675334828</v>
       </c>
       <c r="E10">
         <v>1.020386015005238</v>
@@ -1087,13 +1093,13 @@
         <v>44210</v>
       </c>
       <c r="B11">
-        <v>1.018385291766587</v>
+        <v>1.032608376625283</v>
       </c>
       <c r="C11">
-        <v>1.032608376625283</v>
+        <v>1.018372288902927</v>
       </c>
       <c r="D11">
-        <v>1.025496834195935</v>
+        <v>1.025490332764105</v>
       </c>
       <c r="E11">
         <v>1.011430617658561</v>
@@ -1107,13 +1113,13 @@
         <v>44211</v>
       </c>
       <c r="B12">
-        <v>1.01119104716227</v>
+        <v>1.013354465674621</v>
       </c>
       <c r="C12">
-        <v>1.013354465674621</v>
+        <v>1.011212886923563</v>
       </c>
       <c r="D12">
-        <v>1.012272756418445</v>
+        <v>1.012283676299092</v>
       </c>
       <c r="E12">
         <v>1.007914108598721</v>
@@ -1127,13 +1133,13 @@
         <v>44214</v>
       </c>
       <c r="B13">
-        <v>1.031175059952038</v>
+        <v>1.011534736285991</v>
       </c>
       <c r="C13">
-        <v>1.011534736285991</v>
+        <v>1.031164455674879</v>
       </c>
       <c r="D13">
-        <v>1.021354898119015</v>
+        <v>1.021349595980435</v>
       </c>
       <c r="E13">
         <v>1.023142367573358</v>
@@ -1147,13 +1153,13 @@
         <v>44215</v>
       </c>
       <c r="B14">
-        <v>1.009592326139089</v>
+        <v>0.9922808253353291</v>
       </c>
       <c r="C14">
-        <v>0.9922808253353291</v>
+        <v>1.009580964413561</v>
       </c>
       <c r="D14">
-        <v>1.000936575737209</v>
+        <v>1.000930894874445</v>
       </c>
       <c r="E14">
         <v>1.017160061629216</v>
@@ -1167,13 +1173,13 @@
         <v>44216</v>
       </c>
       <c r="B15">
-        <v>1.028776978417266</v>
+        <v>0.9986205277215228</v>
       </c>
       <c r="C15">
-        <v>0.9986205277215228</v>
+        <v>1.028795535902295</v>
       </c>
       <c r="D15">
-        <v>1.013698753069395</v>
+        <v>1.013708031811909</v>
       </c>
       <c r="E15">
         <v>1.026434284942462</v>
@@ -1187,13 +1193,13 @@
         <v>44217</v>
       </c>
       <c r="B16">
-        <v>1.037569944044764</v>
+        <v>1.019840920430865</v>
       </c>
       <c r="C16">
-        <v>1.019840920430865</v>
+        <v>1.037586860391661</v>
       </c>
       <c r="D16">
-        <v>1.028705432237815</v>
+        <v>1.028713890411263</v>
       </c>
       <c r="E16">
         <v>1.04011081950838</v>
@@ -1207,13 +1213,13 @@
         <v>44218</v>
       </c>
       <c r="B17">
-        <v>1.039968025579536</v>
+        <v>1.018725602418479</v>
       </c>
       <c r="C17">
-        <v>1.018725602418479</v>
+        <v>1.039955780164245</v>
       </c>
       <c r="D17">
-        <v>1.029346813999008</v>
+        <v>1.029340691291362</v>
       </c>
       <c r="E17">
         <v>1.042515364113389</v>
@@ -1227,13 +1233,13 @@
         <v>44221</v>
       </c>
       <c r="B18">
-        <v>1.040767386091127</v>
+        <v>1.055443045405183</v>
       </c>
       <c r="C18">
-        <v>1.055443045405183</v>
+        <v>1.040798062750053</v>
       </c>
       <c r="D18">
-        <v>1.048105215748155</v>
+        <v>1.048120554077618</v>
       </c>
       <c r="E18">
         <v>1.043693292561303</v>
@@ -1247,13 +1253,13 @@
         <v>44222</v>
       </c>
       <c r="B19">
-        <v>0.9760191846522783</v>
+        <v>1.047048809838279</v>
       </c>
       <c r="C19">
-        <v>1.047048809838279</v>
+        <v>0.9760475889660982</v>
       </c>
       <c r="D19">
-        <v>1.011533997245279</v>
+        <v>1.011548199402189</v>
       </c>
       <c r="E19">
         <v>1.026047924411546</v>
@@ -1267,13 +1273,13 @@
         <v>44223</v>
       </c>
       <c r="B20">
-        <v>0.9736211031175059</v>
+        <v>1.038419770479293</v>
       </c>
       <c r="C20">
-        <v>1.038419770479293</v>
+        <v>0.9736260265319014</v>
       </c>
       <c r="D20">
-        <v>1.0060204367984</v>
+        <v>1.006022898505597</v>
       </c>
       <c r="E20">
         <v>1.02984870687015</v>
@@ -1287,13 +1293,13 @@
         <v>44224</v>
       </c>
       <c r="B21">
-        <v>0.9608313349320544</v>
+        <v>1.020017023274926</v>
       </c>
       <c r="C21">
-        <v>1.020017023274926</v>
+        <v>0.9608338597599495</v>
       </c>
       <c r="D21">
-        <v>0.9904241791034902</v>
+        <v>0.9904254415174377</v>
       </c>
       <c r="E21">
         <v>1.007424090364388</v>
@@ -1307,13 +1313,13 @@
         <v>44225</v>
       </c>
       <c r="B22">
-        <v>0.932853717026379</v>
+        <v>1.018402747204368</v>
       </c>
       <c r="C22">
-        <v>1.018402747204368</v>
+        <v>0.9328806064434618</v>
       </c>
       <c r="D22">
-        <v>0.9756282321153733</v>
+        <v>0.9756416768239147</v>
       </c>
       <c r="E22">
         <v>0.9967065120596316</v>
@@ -1327,13 +1333,13 @@
         <v>44228</v>
       </c>
       <c r="B23">
-        <v>0.9280575539568345</v>
+        <v>1.021543247923454</v>
       </c>
       <c r="C23">
-        <v>1.021543247923454</v>
+        <v>0.9280374815750684</v>
       </c>
       <c r="D23">
-        <v>0.9748004009401443</v>
+        <v>0.9747903647492613</v>
       </c>
       <c r="E23">
         <v>1.004110184997589</v>
@@ -1347,13 +1353,13 @@
         <v>44229</v>
       </c>
       <c r="B24">
-        <v>0.9424460431654677</v>
+        <v>1.051333979043761</v>
       </c>
       <c r="C24">
-        <v>1.051333979043761</v>
+        <v>0.9424615708570225</v>
       </c>
       <c r="D24">
-        <v>0.9968900111046146</v>
+        <v>0.996897774950392</v>
       </c>
       <c r="E24">
         <v>1.013770768841751</v>
@@ -1367,13 +1373,13 @@
         <v>44230</v>
       </c>
       <c r="B25">
-        <v>0.9136690647482015</v>
+        <v>1.057116022423762</v>
       </c>
       <c r="C25">
-        <v>1.057116022423762</v>
+        <v>0.9136660349547273</v>
       </c>
       <c r="D25">
-        <v>0.9853925435859819</v>
+        <v>0.9853910286892449</v>
       </c>
       <c r="E25">
         <v>1.00506038061224</v>
@@ -1387,13 +1393,13 @@
         <v>44231</v>
       </c>
       <c r="B26">
-        <v>0.9024780175859313</v>
+        <v>1.059874966980717</v>
       </c>
       <c r="C26">
-        <v>1.059874966980717</v>
+        <v>0.9025057906927774</v>
       </c>
       <c r="D26">
-        <v>0.981176492283324</v>
+        <v>0.9811903788367471</v>
       </c>
       <c r="E26">
         <v>0.9939815709167896</v>
@@ -1407,13 +1413,13 @@
         <v>44232</v>
       </c>
       <c r="B27">
-        <v>0.8856914468425261</v>
+        <v>1.069208417715946</v>
       </c>
       <c r="C27">
-        <v>1.069208417715946</v>
+        <v>0.8857127816382397</v>
       </c>
       <c r="D27">
-        <v>0.9774499322792362</v>
+        <v>0.977460599677093</v>
       </c>
       <c r="E27">
         <v>0.9800160512383169</v>
@@ -1427,13 +1433,13 @@
         <v>44235</v>
       </c>
       <c r="B28">
-        <v>0.8880895283772982</v>
+        <v>1.089577646678994</v>
       </c>
       <c r="C28">
-        <v>1.089577646678994</v>
+        <v>0.8880817014108234</v>
       </c>
       <c r="D28">
-        <v>0.988833587528146</v>
+        <v>0.9888296740449087</v>
       </c>
       <c r="E28">
         <v>0.9930973392952219</v>
@@ -1447,13 +1453,13 @@
         <v>44236</v>
       </c>
       <c r="B29">
-        <v>0.935251798561151</v>
+        <v>1.114848404801738</v>
       </c>
       <c r="C29">
-        <v>1.114848404801738</v>
+        <v>0.9352495262160455</v>
       </c>
       <c r="D29">
-        <v>1.025050101681444</v>
+        <v>1.025048965508891</v>
       </c>
       <c r="E29">
         <v>1.014256075362292</v>
@@ -1467,13 +1473,13 @@
         <v>44237</v>
       </c>
       <c r="B30">
-        <v>0.9312549960031975</v>
+        <v>1.151976754424584</v>
       </c>
       <c r="C30">
-        <v>1.151976754424584</v>
+        <v>0.9312486839334596</v>
       </c>
       <c r="D30">
-        <v>1.041615875213891</v>
+        <v>1.041612719179022</v>
       </c>
       <c r="E30">
         <v>1.024824449396979</v>
@@ -1487,13 +1493,13 @@
         <v>44245</v>
       </c>
       <c r="B31">
-        <v>0.9256594724220623</v>
+        <v>1.118106307416865</v>
       </c>
       <c r="C31">
-        <v>1.118106307416865</v>
+        <v>0.9256685618024847</v>
       </c>
       <c r="D31">
-        <v>1.021882889919464</v>
+        <v>1.021887434609675</v>
       </c>
       <c r="E31">
         <v>1.038860644782327</v>
@@ -1507,13 +1513,13 @@
         <v>44246</v>
       </c>
       <c r="B32">
-        <v>0.9280575539568345</v>
+        <v>1.135041530920724</v>
       </c>
       <c r="C32">
-        <v>1.135041530920724</v>
+        <v>0.9280374815750684</v>
       </c>
       <c r="D32">
-        <v>1.031549542438779</v>
+        <v>1.031539506247896</v>
       </c>
       <c r="E32">
         <v>1.052829305603327</v>
@@ -1527,13 +1533,13 @@
         <v>44249</v>
       </c>
       <c r="B33">
-        <v>0.8992805755395684</v>
+        <v>1.084118458513105</v>
       </c>
       <c r="C33">
-        <v>1.084118458513105</v>
+        <v>0.8992945883343861</v>
       </c>
       <c r="D33">
-        <v>0.9916995170263367</v>
+        <v>0.9917065234237457</v>
       </c>
       <c r="E33">
         <v>1.045538713796369</v>
@@ -1547,13 +1553,13 @@
         <v>44250</v>
       </c>
       <c r="B34">
-        <v>0.9224620303756994</v>
+        <v>1.074139297349652</v>
       </c>
       <c r="C34">
-        <v>1.074139297349652</v>
+        <v>0.9224573594440935</v>
       </c>
       <c r="D34">
-        <v>0.9983006638626758</v>
+        <v>0.9982983283968728</v>
       </c>
       <c r="E34">
         <v>1.041481928221752</v>
@@ -1567,13 +1573,13 @@
         <v>44251</v>
       </c>
       <c r="B35">
-        <v>0.9224620303756994</v>
+        <v>1.037363153414928</v>
       </c>
       <c r="C35">
-        <v>1.037363153414928</v>
+        <v>0.9224573594440935</v>
       </c>
       <c r="D35">
-        <v>0.9799125918953135</v>
+        <v>0.9799102564295106</v>
       </c>
       <c r="E35">
         <v>1.026555218929781</v>
@@ -1587,13 +1593,13 @@
         <v>44252</v>
       </c>
       <c r="B36">
-        <v>0.9392486011191048</v>
+        <v>1.027530744621526</v>
       </c>
       <c r="C36">
-        <v>1.027530744621526</v>
+        <v>0.9392503684986313</v>
       </c>
       <c r="D36">
-        <v>0.9833896728703153</v>
+        <v>0.9833905565600786</v>
       </c>
       <c r="E36">
         <v>1.020737822968348</v>
@@ -1607,13 +1613,13 @@
         <v>44253</v>
       </c>
       <c r="B37">
-        <v>0.9096722621902478</v>
+        <v>1.001085967538376</v>
       </c>
       <c r="C37">
-        <v>1.001085967538376</v>
+        <v>0.9096651926721415</v>
       </c>
       <c r="D37">
-        <v>0.9553791148643118</v>
+        <v>0.9553755801052587</v>
       </c>
       <c r="E37">
         <v>0.9995665223311676</v>
@@ -1627,13 +1633,13 @@
         <v>44256</v>
       </c>
       <c r="B38">
-        <v>0.9248601119104717</v>
+        <v>1.011886941974113</v>
       </c>
       <c r="C38">
-        <v>1.011886941974113</v>
+        <v>0.9248789218782901</v>
       </c>
       <c r="D38">
-        <v>0.9683735269422924</v>
+        <v>0.9683829319262016</v>
       </c>
       <c r="E38">
         <v>1.019055741144727</v>
@@ -1647,13 +1653,13 @@
         <v>44257</v>
       </c>
       <c r="B39">
-        <v>0.9304556354916067</v>
+        <v>0.9921634234392885</v>
       </c>
       <c r="C39">
-        <v>0.9921634234392885</v>
+        <v>0.9304590440092652</v>
       </c>
       <c r="D39">
-        <v>0.9613095294654477</v>
+        <v>0.9613112337242768</v>
       </c>
       <c r="E39">
         <v>1.010400322909452</v>
@@ -1667,13 +1673,13 @@
         <v>44258</v>
       </c>
       <c r="B40">
-        <v>0.9288569144684253</v>
+        <v>1.004901529159696</v>
       </c>
       <c r="C40">
-        <v>1.004901529159696</v>
+        <v>0.9288797641608759</v>
       </c>
       <c r="D40">
-        <v>0.9668792218140606</v>
+        <v>0.9668906466602859</v>
       </c>
       <c r="E40">
         <v>1.024758485403896</v>
@@ -1687,13 +1693,13 @@
         <v>44259</v>
       </c>
       <c r="B41">
-        <v>0.9176658673061551</v>
+        <v>0.9637521645974583</v>
       </c>
       <c r="C41">
-        <v>0.9637521645974583</v>
+        <v>0.9176668772373132</v>
       </c>
       <c r="D41">
-        <v>0.9407090159518067</v>
+        <v>0.9407095209173857</v>
       </c>
       <c r="E41">
         <v>1.005478152568434</v>
@@ -1707,13 +1713,13 @@
         <v>44260</v>
       </c>
       <c r="B42">
-        <v>0.9000799360511591</v>
+        <v>0.9635760617533974</v>
       </c>
       <c r="C42">
-        <v>0.9635760617533974</v>
+        <v>0.9000842282585808</v>
       </c>
       <c r="D42">
-        <v>0.9318279989022782</v>
+        <v>0.9318301450059892</v>
       </c>
       <c r="E42">
         <v>1.005715308829281</v>
@@ -1727,13 +1733,13 @@
         <v>44263</v>
       </c>
       <c r="B43">
-        <v>0.8441247002398082</v>
+        <v>0.915881541486895</v>
       </c>
       <c r="C43">
-        <v>0.915881541486895</v>
+        <v>0.8441250789639924</v>
       </c>
       <c r="D43">
-        <v>0.8800031208633516</v>
+        <v>0.8800033102254436</v>
       </c>
       <c r="E43">
         <v>0.9826137761087841</v>
@@ -1747,13 +1753,13 @@
         <v>44264</v>
       </c>
       <c r="B44">
-        <v>0.8025579536370904</v>
+        <v>0.8903172786240497</v>
       </c>
       <c r="C44">
-        <v>0.8903172786240497</v>
+        <v>0.8025373762897452</v>
       </c>
       <c r="D44">
-        <v>0.84643761613057</v>
+        <v>0.8464273274568974</v>
       </c>
       <c r="E44">
         <v>0.9593049279814547</v>
@@ -1767,13 +1773,13 @@
         <v>44265</v>
       </c>
       <c r="B45">
-        <v>0.7977617905675459</v>
+        <v>0.9041120014088229</v>
       </c>
       <c r="C45">
-        <v>0.9041120014088229</v>
+        <v>0.7977468940829648</v>
       </c>
       <c r="D45">
-        <v>0.8509368959881844</v>
+        <v>0.8509294477458939</v>
       </c>
       <c r="E45">
         <v>0.952121135020441</v>
@@ -1787,13 +1793,13 @@
         <v>44266</v>
       </c>
       <c r="B46">
-        <v>0.8105515587529977</v>
+        <v>0.9282967919931907</v>
       </c>
       <c r="C46">
-        <v>0.9282967919931907</v>
+        <v>0.8105390608549169</v>
       </c>
       <c r="D46">
-        <v>0.8694241753730942</v>
+        <v>0.8694179264240538</v>
       </c>
       <c r="E46">
         <v>0.9759262836671583</v>
@@ -1807,13 +1813,13 @@
         <v>44267</v>
       </c>
       <c r="B47">
-        <v>0.8049560351718624</v>
+        <v>0.927386927298876</v>
       </c>
       <c r="C47">
-        <v>0.927386927298876</v>
+        <v>0.8049589387239419</v>
       </c>
       <c r="D47">
-        <v>0.8661714812353691</v>
+        <v>0.866172933011409</v>
       </c>
       <c r="E47">
         <v>0.9772691220977807</v>
@@ -1827,13 +1833,13 @@
         <v>44270</v>
       </c>
       <c r="B48">
-        <v>0.8001598721023181</v>
+        <v>0.8954242611018169</v>
       </c>
       <c r="C48">
-        <v>0.8954242611018169</v>
+        <v>0.8001684565171615</v>
       </c>
       <c r="D48">
-        <v>0.8477920666020675</v>
+        <v>0.8477963588094892</v>
       </c>
       <c r="E48">
         <v>0.9696502808966706</v>
@@ -1847,13 +1853,13 @@
         <v>44271</v>
       </c>
       <c r="B49">
-        <v>0.7985611510791367</v>
+        <v>0.9092189838865898</v>
       </c>
       <c r="C49">
-        <v>0.9092189838865898</v>
+        <v>0.7985891766687724</v>
       </c>
       <c r="D49">
-        <v>0.8538900674828633</v>
+        <v>0.8539040802776812</v>
       </c>
       <c r="E49">
         <v>0.9730065916875945</v>
@@ -1867,13 +1873,13 @@
         <v>44272</v>
       </c>
       <c r="B50">
-        <v>0.8113509192645882</v>
+        <v>0.9246279827419214</v>
       </c>
       <c r="C50">
-        <v>0.9246279827419214</v>
+        <v>0.8113813434407243</v>
       </c>
       <c r="D50">
-        <v>0.8679894510032549</v>
+        <v>0.8680046630913228</v>
       </c>
       <c r="E50">
         <v>0.9777371523344186</v>
@@ -1887,13 +1893,13 @@
         <v>44273</v>
       </c>
       <c r="B51">
-        <v>0.8201438848920863</v>
+        <v>0.9405652901294357</v>
       </c>
       <c r="C51">
-        <v>0.9405652901294357</v>
+        <v>0.8201726679300906</v>
       </c>
       <c r="D51">
-        <v>0.880354587510761</v>
+        <v>0.8803689790297631</v>
       </c>
       <c r="E51">
         <v>0.9853544229642648</v>
@@ -1907,13 +1913,13 @@
         <v>44274</v>
       </c>
       <c r="B52">
-        <v>0.8249400479616308</v>
+        <v>0.9163804995450676</v>
       </c>
       <c r="C52">
-        <v>0.9163804995450676</v>
+        <v>0.8249631501368709</v>
       </c>
       <c r="D52">
-        <v>0.8706602737533492</v>
+        <v>0.8706718248409693</v>
       </c>
       <c r="E52">
         <v>0.9747907606433689</v>
@@ -1927,13 +1933,13 @@
         <v>44277</v>
       </c>
       <c r="B53">
-        <v>0.8313349320543566</v>
+        <v>0.9197851545302457</v>
       </c>
       <c r="C53">
-        <v>0.9197851545302457</v>
+        <v>0.8313329121920404</v>
       </c>
       <c r="D53">
-        <v>0.8755600432923012</v>
+        <v>0.875559033361143</v>
       </c>
       <c r="E53">
         <v>0.9903535512972134</v>
@@ -1947,13 +1953,13 @@
         <v>44278</v>
       </c>
       <c r="B54">
-        <v>0.8257394084732214</v>
+        <v>0.9179947756156263</v>
       </c>
       <c r="C54">
-        <v>0.9179947756156263</v>
+        <v>0.8257527900610655</v>
       </c>
       <c r="D54">
-        <v>0.8718670920444238</v>
+        <v>0.8718737828383458</v>
       </c>
       <c r="E54">
         <v>0.9767649687220733</v>
@@ -1967,13 +1973,13 @@
         <v>44279</v>
       </c>
       <c r="B55">
-        <v>0.812150279776179</v>
+        <v>0.9127410407678084</v>
       </c>
       <c r="C55">
-        <v>0.9127410407678084</v>
+        <v>0.8121709833649189</v>
       </c>
       <c r="D55">
-        <v>0.8624456602719937</v>
+        <v>0.8624560120663636</v>
       </c>
       <c r="E55">
         <v>0.9647296811269164</v>
@@ -1987,13 +1993,13 @@
         <v>44280</v>
       </c>
       <c r="B56">
-        <v>0.815347721822542</v>
+        <v>0.9112441665932904</v>
       </c>
       <c r="C56">
-        <v>0.9112441665932904</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="D56">
-        <v>0.8632959442079162</v>
+        <v>0.8632868548274939</v>
       </c>
       <c r="E56">
         <v>0.9670651205963146</v>
@@ -2007,13 +2013,13 @@
         <v>44281</v>
       </c>
       <c r="B57">
-        <v>0.8273381294964028</v>
+        <v>0.930615479439993</v>
       </c>
       <c r="C57">
-        <v>0.930615479439993</v>
+        <v>0.8273320699094547</v>
       </c>
       <c r="D57">
-        <v>0.8789768044681979</v>
+        <v>0.8789737746747239</v>
       </c>
       <c r="E57">
         <v>0.9818881721848689</v>
@@ -2027,13 +2033,13 @@
         <v>44284</v>
       </c>
       <c r="B58">
-        <v>0.8409272581934453</v>
+        <v>0.9376889436764404</v>
       </c>
       <c r="C58">
-        <v>0.9376889436764404</v>
+        <v>0.8409138766056011</v>
       </c>
       <c r="D58">
-        <v>0.8893081009349428</v>
+        <v>0.8893014101410208</v>
       </c>
       <c r="E58">
         <v>0.9823829021329928</v>
@@ -2047,13 +2053,13 @@
         <v>44285</v>
       </c>
       <c r="B59">
-        <v>0.8577138289368506</v>
+        <v>0.9466408382495377</v>
       </c>
       <c r="C59">
-        <v>0.9466408382495377</v>
+        <v>0.857706885660139</v>
       </c>
       <c r="D59">
-        <v>0.9021773335931942</v>
+        <v>0.9021738619548383</v>
       </c>
       <c r="E59">
         <v>0.9863752942857905</v>
@@ -2067,13 +2073,13 @@
         <v>44286</v>
       </c>
       <c r="B60">
-        <v>0.8257394084732214</v>
+        <v>0.9374541398843592</v>
       </c>
       <c r="C60">
-        <v>0.9374541398843592</v>
+        <v>0.8257527900610655</v>
       </c>
       <c r="D60">
-        <v>0.8815967741787902</v>
+        <v>0.8816034649727124</v>
       </c>
       <c r="E60">
         <v>0.9822462624330348</v>
@@ -2087,13 +2093,13 @@
         <v>44287</v>
       </c>
       <c r="B61">
-        <v>0.8313349320543566</v>
+        <v>0.9519532740453759</v>
       </c>
       <c r="C61">
-        <v>0.9519532740453759</v>
+        <v>0.8313329121920404</v>
       </c>
       <c r="D61">
-        <v>0.8916441030498663</v>
+        <v>0.8916430931187082</v>
       </c>
       <c r="E61">
         <v>0.9912911823417532</v>
@@ -2107,13 +2113,13 @@
         <v>44288</v>
       </c>
       <c r="B62">
-        <v>0.8345323741007195</v>
+        <v>0.9774294854861907</v>
       </c>
       <c r="C62">
-        <v>0.9774294854861907</v>
+        <v>0.8345441145504316</v>
       </c>
       <c r="D62">
-        <v>0.9059809297934551</v>
+        <v>0.9059868000183111</v>
       </c>
       <c r="E62">
         <v>0.9936391863812625</v>
@@ -2127,13 +2133,13 @@
         <v>44292</v>
       </c>
       <c r="B63">
-        <v>0.8425259792166268</v>
+        <v>0.969358105133398</v>
       </c>
       <c r="C63">
-        <v>0.969358105133398</v>
+        <v>0.8425457991156033</v>
       </c>
       <c r="D63">
-        <v>0.9059420421750124</v>
+        <v>0.9059519521245007</v>
       </c>
       <c r="E63">
         <v>0.9962290583954103</v>
@@ -2147,13 +2153,13 @@
         <v>44293</v>
       </c>
       <c r="B64">
-        <v>0.8377298161470823</v>
+        <v>0.9474920019958324</v>
       </c>
       <c r="C64">
-        <v>0.9474920019958324</v>
+        <v>0.8377553169088229</v>
       </c>
       <c r="D64">
-        <v>0.8926109090714573</v>
+        <v>0.8926236594523276</v>
       </c>
       <c r="E64">
         <v>0.9970112028848254</v>
@@ -2167,13 +2173,13 @@
         <v>44294</v>
       </c>
       <c r="B65">
-        <v>0.8353317346123101</v>
+        <v>0.9584984297496405</v>
       </c>
       <c r="C65">
-        <v>0.9584984297496405</v>
+        <v>0.8353337544746262</v>
       </c>
       <c r="D65">
-        <v>0.8969150821809753</v>
+        <v>0.8969160921121333</v>
       </c>
       <c r="E65">
         <v>0.9983728881706143</v>
@@ -2187,13 +2193,13 @@
         <v>44295</v>
       </c>
       <c r="B66">
-        <v>0.8401278976818545</v>
+        <v>0.9408000939215169</v>
       </c>
       <c r="C66">
-        <v>0.9408000939215169</v>
+        <v>0.8401242366814067</v>
       </c>
       <c r="D66">
-        <v>0.8904639958016857</v>
+        <v>0.8904621653014617</v>
       </c>
       <c r="E66">
         <v>0.9949945893819959</v>
@@ -2207,13 +2213,13 @@
         <v>44298</v>
       </c>
       <c r="B67">
-        <v>0.8145483613109512</v>
+        <v>0.9315840450823281</v>
       </c>
       <c r="C67">
-        <v>0.9315840450823281</v>
+        <v>0.8145399031375026</v>
       </c>
       <c r="D67">
-        <v>0.8730662031966396</v>
+        <v>0.8730619741099153</v>
       </c>
       <c r="E67">
         <v>0.9779036328883906</v>
@@ -2227,13 +2233,13 @@
         <v>44299</v>
       </c>
       <c r="B68">
-        <v>0.812150279776179</v>
+        <v>0.939684775909131</v>
       </c>
       <c r="C68">
-        <v>0.939684775909131</v>
+        <v>0.8121709833649189</v>
       </c>
       <c r="D68">
-        <v>0.875917527842655</v>
+        <v>0.8759278796370249</v>
       </c>
       <c r="E68">
         <v>0.9752902023052845</v>
@@ -2247,13 +2253,13 @@
         <v>44300</v>
       </c>
       <c r="B69">
-        <v>0.8233413269384493</v>
+        <v>0.9444982536467964</v>
       </c>
       <c r="C69">
-        <v>0.9444982536467964</v>
+        <v>0.8233312276268688</v>
       </c>
       <c r="D69">
-        <v>0.8839197902926228</v>
+        <v>0.8839147406368326</v>
       </c>
       <c r="E69">
         <v>0.9858805643376666</v>
@@ -2267,13 +2273,13 @@
         <v>44301</v>
       </c>
       <c r="B70">
-        <v>0.8217426059152678</v>
+        <v>0.9376889436764404</v>
       </c>
       <c r="C70">
-        <v>0.9376889436764404</v>
+        <v>0.8217519477784797</v>
       </c>
       <c r="D70">
-        <v>0.8797157747958542</v>
+        <v>0.8797204457274601</v>
       </c>
       <c r="E70">
         <v>0.9857627714928752</v>
@@ -2287,13 +2293,13 @@
         <v>44302</v>
       </c>
       <c r="B71">
-        <v>0.8225419664268584</v>
+        <v>0.9434709870564411</v>
       </c>
       <c r="C71">
-        <v>0.9434709870564411</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="D71">
-        <v>0.8830064767416497</v>
+        <v>0.8830062873795577</v>
       </c>
       <c r="E71">
         <v>0.9956777878817863</v>
@@ -2307,13 +2313,13 @@
         <v>44305</v>
       </c>
       <c r="B72">
-        <v>0.8337330135891287</v>
+        <v>0.9591734906518741</v>
       </c>
       <c r="C72">
-        <v>0.9591734906518741</v>
+        <v>0.8337544746262372</v>
       </c>
       <c r="D72">
-        <v>0.8964532521205013</v>
+        <v>0.8964639826390557</v>
       </c>
       <c r="E72">
         <v>1.009132871899496</v>
@@ -2327,13 +2333,13 @@
         <v>44306</v>
       </c>
       <c r="B73">
-        <v>0.8297362110311751</v>
+        <v>0.9685362918611137</v>
       </c>
       <c r="C73">
-        <v>0.9685362918611137</v>
+        <v>0.8297536323436513</v>
       </c>
       <c r="D73">
-        <v>0.8991362514461444</v>
+        <v>0.8991449621023825</v>
       </c>
       <c r="E73">
         <v>1.009648019274051</v>
@@ -2347,13 +2353,13 @@
         <v>44307</v>
       </c>
       <c r="B74">
-        <v>0.8225419664268584</v>
+        <v>0.9749933961433477</v>
       </c>
       <c r="C74">
-        <v>0.9749933961433477</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="D74">
-        <v>0.8987676812851031</v>
+        <v>0.898767491923011</v>
       </c>
       <c r="E74">
         <v>1.008347586267553</v>
@@ -2367,13 +2373,13 @@
         <v>44308</v>
       </c>
       <c r="B75">
-        <v>0.8225419664268584</v>
+        <v>0.97349652196883</v>
       </c>
       <c r="C75">
-        <v>0.97349652196883</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="D75">
-        <v>0.8980192441978442</v>
+        <v>0.8980190548357521</v>
       </c>
       <c r="E75">
         <v>1.012306996423809</v>
@@ -2387,13 +2393,13 @@
         <v>44309</v>
       </c>
       <c r="B76">
-        <v>0.8201438848920863</v>
+        <v>0.9871151419095419</v>
       </c>
       <c r="C76">
-        <v>0.9871151419095419</v>
+        <v>0.8201726679300906</v>
       </c>
       <c r="D76">
-        <v>0.9036295134008141</v>
+        <v>0.9036439049198162</v>
       </c>
       <c r="E76">
         <v>1.015022514139068</v>
@@ -2407,13 +2413,13 @@
         <v>44312</v>
       </c>
       <c r="B77">
-        <v>0.8193445243804955</v>
+        <v>0.968418889965073</v>
       </c>
       <c r="C77">
-        <v>0.968418889965073</v>
+        <v>0.819330385344283</v>
       </c>
       <c r="D77">
-        <v>0.8938817071727843</v>
+        <v>0.893874637654678</v>
       </c>
       <c r="E77">
         <v>1.011864095327393</v>
@@ -2427,13 +2433,13 @@
         <v>44313</v>
       </c>
       <c r="B78">
-        <v>0.8089528377298162</v>
+        <v>0.9759326113116727</v>
       </c>
       <c r="C78">
-        <v>0.9759326113116727</v>
+        <v>0.8089597810065277</v>
       </c>
       <c r="D78">
-        <v>0.8924427245207445</v>
+        <v>0.8924461961591001</v>
       </c>
       <c r="E78">
         <v>1.012434212696184</v>
@@ -2447,13 +2453,13 @@
         <v>44314</v>
       </c>
       <c r="B79">
-        <v>0.815347721822542</v>
+        <v>0.9839746411904553</v>
       </c>
       <c r="C79">
-        <v>0.9839746411904553</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="D79">
-        <v>0.8996611815064987</v>
+        <v>0.8996520921260762</v>
       </c>
       <c r="E79">
         <v>1.019259915409032</v>
@@ -2467,13 +2473,13 @@
         <v>44315</v>
       </c>
       <c r="B80">
-        <v>0.815347721822542</v>
+        <v>0.9995010419418274</v>
       </c>
       <c r="C80">
-        <v>0.9995010419418274</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="D80">
-        <v>0.9074243818821848</v>
+        <v>0.9074152925017623</v>
       </c>
       <c r="E80">
         <v>1.019603870515823</v>
@@ -2487,13 +2493,13 @@
         <v>44316</v>
       </c>
       <c r="B81">
-        <v>0.7889688249400479</v>
+        <v>0.992251474861319</v>
       </c>
       <c r="C81">
-        <v>0.992251474861319</v>
+        <v>0.7889555695935986</v>
       </c>
       <c r="D81">
-        <v>0.8906101499006835</v>
+        <v>0.8906035222274589</v>
       </c>
       <c r="E81">
         <v>1.018626975189686</v>
@@ -2507,13 +2513,13 @@
         <v>44322</v>
       </c>
       <c r="B82">
-        <v>0.7993605115907274</v>
+        <v>0.9657186463561387</v>
       </c>
       <c r="C82">
-        <v>0.9657186463561387</v>
+        <v>0.7993788165929669</v>
       </c>
       <c r="D82">
-        <v>0.882539578973433</v>
+        <v>0.8825487314745528</v>
       </c>
       <c r="E82">
         <v>1.01919866312974</v>
@@ -2527,13 +2533,13 @@
         <v>44323</v>
       </c>
       <c r="B83">
-        <v>0.7881694644284573</v>
+        <v>0.953127293005782</v>
       </c>
       <c r="C83">
-        <v>0.953127293005782</v>
+        <v>0.7881659296694041</v>
       </c>
       <c r="D83">
-        <v>0.8706483787171196</v>
+        <v>0.870646611337593</v>
       </c>
       <c r="E83">
         <v>1.012145227583629</v>
@@ -2547,13 +2553,13 @@
         <v>44326</v>
       </c>
       <c r="B84">
-        <v>0.7777777777777777</v>
+        <v>0.9364268732940038</v>
       </c>
       <c r="C84">
-        <v>0.9364268732940038</v>
+        <v>0.7777953253316489</v>
       </c>
       <c r="D84">
-        <v>0.8571023255358907</v>
+        <v>0.8571110993128264</v>
       </c>
       <c r="E84">
         <v>1.017100379921189</v>
@@ -2567,13 +2573,13 @@
         <v>44327</v>
       </c>
       <c r="B85">
-        <v>0.7961630695443646</v>
+        <v>0.9588212849637522</v>
       </c>
       <c r="C85">
-        <v>0.9588212849637522</v>
+        <v>0.7961676142345757</v>
       </c>
       <c r="D85">
-        <v>0.8774921772540584</v>
+        <v>0.8774944495991639</v>
       </c>
       <c r="E85">
         <v>1.013967090249737</v>
@@ -2587,13 +2593,13 @@
         <v>44328</v>
       </c>
       <c r="B86">
-        <v>0.7929656274980016</v>
+        <v>0.9696516098734995</v>
       </c>
       <c r="C86">
-        <v>0.9696516098734995</v>
+        <v>0.7929564118761845</v>
       </c>
       <c r="D86">
-        <v>0.8813086186857506</v>
+        <v>0.881304010874842</v>
       </c>
       <c r="E86">
         <v>1.022763859898761</v>
@@ -2607,13 +2613,13 @@
         <v>44329</v>
       </c>
       <c r="B87">
-        <v>0.7905675459632294</v>
+        <v>0.9675677262187785</v>
       </c>
       <c r="C87">
-        <v>0.9675677262187785</v>
+        <v>0.7905874921036008</v>
       </c>
       <c r="D87">
-        <v>0.8790676360910039</v>
+        <v>0.8790776091611896</v>
       </c>
       <c r="E87">
         <v>1.011295548529867</v>
@@ -2627,13 +2633,13 @@
         <v>44330</v>
       </c>
       <c r="B88">
-        <v>0.818545163868905</v>
+        <v>0.9831821783921811</v>
       </c>
       <c r="C88">
-        <v>0.9831821783921811</v>
+        <v>0.8185407454200885</v>
       </c>
       <c r="D88">
-        <v>0.9008636711305431</v>
+        <v>0.9008614619061348</v>
       </c>
       <c r="E88">
         <v>1.024923395386604</v>
@@ -2647,13 +2653,13 @@
         <v>44333</v>
       </c>
       <c r="B89">
-        <v>0.8233413269384493</v>
+        <v>1.003169851193097</v>
       </c>
       <c r="C89">
-        <v>1.003169851193097</v>
+        <v>0.8233312276268688</v>
       </c>
       <c r="D89">
-        <v>0.9132555890657731</v>
+        <v>0.9132505394099828</v>
       </c>
       <c r="E89">
         <v>1.033143765381782</v>
@@ -2667,13 +2673,13 @@
         <v>44334</v>
       </c>
       <c r="B90">
-        <v>0.8401278976818545</v>
+        <v>1.001203369434416</v>
       </c>
       <c r="C90">
-        <v>1.001203369434416</v>
+        <v>0.8401242366814067</v>
       </c>
       <c r="D90">
-        <v>0.9206656335581355</v>
+        <v>0.9206638030579115</v>
       </c>
       <c r="E90">
         <v>1.036514211314081</v>
@@ -2687,13 +2693,13 @@
         <v>44335</v>
       </c>
       <c r="B91">
-        <v>0.841726618705036</v>
+        <v>0.9963018402747205</v>
       </c>
       <c r="C91">
-        <v>0.9963018402747205</v>
+        <v>0.8417561591914087</v>
       </c>
       <c r="D91">
-        <v>0.9190142294898782</v>
+        <v>0.9190289997330645</v>
       </c>
       <c r="E91">
         <v>1.034125372421711</v>
@@ -2707,13 +2713,13 @@
         <v>44336</v>
       </c>
       <c r="B92">
-        <v>0.8433253397282174</v>
+        <v>1.007044113762437</v>
       </c>
       <c r="C92">
-        <v>1.007044113762437</v>
+        <v>0.8433354390397979</v>
       </c>
       <c r="D92">
-        <v>0.9251847267453274</v>
+        <v>0.9251897764011177</v>
       </c>
       <c r="E92">
         <v>1.028521574152166</v>
@@ -2727,13 +2733,13 @@
         <v>44337</v>
       </c>
       <c r="B93">
-        <v>0.8273381294964028</v>
+        <v>0.9989433829356346</v>
       </c>
       <c r="C93">
-        <v>0.9989433829356346</v>
+        <v>0.8273320699094547</v>
       </c>
       <c r="D93">
-        <v>0.9131407562160188</v>
+        <v>0.9131377264225446</v>
       </c>
       <c r="E93">
         <v>1.025246933066964</v>
@@ -2747,13 +2753,13 @@
         <v>44340</v>
       </c>
       <c r="B94">
-        <v>0.8345323741007195</v>
+        <v>1.006339702386194</v>
       </c>
       <c r="C94">
-        <v>1.006339702386194</v>
+        <v>0.8345441145504316</v>
       </c>
       <c r="D94">
-        <v>0.9204360382434564</v>
+        <v>0.9204419084683126</v>
       </c>
       <c r="E94">
         <v>1.027800681942043</v>
@@ -2767,13 +2773,13 @@
         <v>44341</v>
       </c>
       <c r="B95">
-        <v>0.8617106314948043</v>
+        <v>1.037363153414928</v>
       </c>
       <c r="C95">
-        <v>1.037363153414928</v>
+        <v>0.8617077279427248</v>
       </c>
       <c r="D95">
-        <v>0.9495368924548659</v>
+        <v>0.9495354406788262</v>
       </c>
       <c r="E95">
         <v>1.0396663478407</v>
@@ -2787,13 +2793,13 @@
         <v>44342</v>
       </c>
       <c r="B96">
-        <v>0.8617106314948043</v>
+        <v>1.032314871885181</v>
       </c>
       <c r="C96">
-        <v>1.032314871885181</v>
+        <v>0.8617077279427248</v>
       </c>
       <c r="D96">
-        <v>0.9470127516899927</v>
+        <v>0.9470112999139528</v>
       </c>
       <c r="E96">
         <v>1.041007615700059</v>
@@ -2807,13 +2813,13 @@
         <v>44343</v>
       </c>
       <c r="B97">
-        <v>0.8689048760991207</v>
+        <v>1.033518241319597</v>
       </c>
       <c r="C97">
-        <v>1.033518241319597</v>
+        <v>0.8689197725837019</v>
       </c>
       <c r="D97">
-        <v>0.951211558709359</v>
+        <v>0.9512190069516496</v>
       </c>
       <c r="E97">
         <v>1.049991283329486</v>
@@ -2827,13 +2833,13 @@
         <v>44344</v>
       </c>
       <c r="B98">
-        <v>0.8729016786570745</v>
+        <v>1.026855683719292</v>
       </c>
       <c r="C98">
-        <v>1.026855683719292</v>
+        <v>0.8729206148662876</v>
       </c>
       <c r="D98">
-        <v>0.9498786811881833</v>
+        <v>0.9498881492927899</v>
       </c>
       <c r="E98">
         <v>1.047283618470546</v>
@@ -2847,13 +2853,13 @@
         <v>44347</v>
       </c>
       <c r="B99">
-        <v>0.8976818545163868</v>
+        <v>1.027530744621526</v>
       </c>
       <c r="C99">
-        <v>1.027530744621526</v>
+        <v>0.8976626658243841</v>
       </c>
       <c r="D99">
-        <v>0.9626062995689564</v>
+        <v>0.9625967052229549</v>
       </c>
       <c r="E99">
         <v>1.0568358328975</v>
@@ -2867,13 +2873,13 @@
         <v>44348</v>
       </c>
       <c r="B100">
-        <v>0.8928856914468426</v>
+        <v>1.03401719937777</v>
       </c>
       <c r="C100">
-        <v>1.03401719937777</v>
+        <v>0.8928721836176037</v>
       </c>
       <c r="D100">
-        <v>0.9634514454123063</v>
+        <v>0.9634446914976869</v>
       </c>
       <c r="E100">
         <v>1.058527338148705</v>
@@ -2887,13 +2893,13 @@
         <v>44349</v>
       </c>
       <c r="B101">
-        <v>0.8729016786570745</v>
+        <v>1.025564262862845</v>
       </c>
       <c r="C101">
-        <v>1.025564262862845</v>
+        <v>0.8729206148662876</v>
       </c>
       <c r="D101">
-        <v>0.9492329707599599</v>
+        <v>0.9492424388645665</v>
       </c>
       <c r="E101">
         <v>1.049366195966459</v>
@@ -2907,13 +2913,13 @@
         <v>44350</v>
       </c>
       <c r="B102">
-        <v>0.8609112709832135</v>
+        <v>1.027560095095536</v>
       </c>
       <c r="C102">
-        <v>1.027560095095536</v>
+        <v>0.8609180880185302</v>
       </c>
       <c r="D102">
-        <v>0.9442356830393748</v>
+        <v>0.9442390915570331</v>
       </c>
       <c r="E102">
         <v>1.047214513334935</v>
@@ -2927,13 +2933,13 @@
         <v>44351</v>
       </c>
       <c r="B103">
-        <v>0.8705035971223022</v>
+        <v>1.036482639194623</v>
       </c>
       <c r="C103">
-        <v>1.036482639194623</v>
+        <v>0.8704990524320909</v>
       </c>
       <c r="D103">
-        <v>0.9534931181584627</v>
+        <v>0.9534908458133571</v>
       </c>
       <c r="E103">
         <v>1.051192770346358</v>
@@ -2947,13 +2953,13 @@
         <v>44354</v>
       </c>
       <c r="B104">
-        <v>0.8848920863309353</v>
+        <v>1.03210941856711</v>
       </c>
       <c r="C104">
-        <v>1.03210941856711</v>
+        <v>0.8849231417140451</v>
       </c>
       <c r="D104">
-        <v>0.9585007524490227</v>
+        <v>0.9585162801405775</v>
       </c>
       <c r="E104">
         <v>1.055659475020849</v>
@@ -2967,13 +2973,13 @@
         <v>44355</v>
       </c>
       <c r="B105">
-        <v>0.8952837729816148</v>
+        <v>1.001350121804467</v>
       </c>
       <c r="C105">
-        <v>1.001350121804467</v>
+        <v>0.8952937460518005</v>
       </c>
       <c r="D105">
-        <v>0.9483169473930411</v>
+        <v>0.9483219339281339</v>
       </c>
       <c r="E105">
         <v>1.049857784772055</v>
@@ -2987,13 +2993,13 @@
         <v>44356</v>
       </c>
       <c r="B106">
-        <v>0.9008792965627499</v>
+        <v>1.006310351912183</v>
       </c>
       <c r="C106">
-        <v>1.006310351912183</v>
+        <v>0.9008738681827754</v>
       </c>
       <c r="D106">
-        <v>0.9535948242374667</v>
+        <v>0.9535921100474793</v>
       </c>
       <c r="E106">
         <v>1.051167641206136</v>
@@ -3007,13 +3013,13 @@
         <v>44357</v>
       </c>
       <c r="B107">
-        <v>0.903277378097522</v>
+        <v>1.012180446714214</v>
       </c>
       <c r="C107">
-        <v>1.012180446714214</v>
+        <v>0.903295430616972</v>
       </c>
       <c r="D107">
-        <v>0.9577289124058681</v>
+        <v>0.9577379386655932</v>
       </c>
       <c r="E107">
         <v>1.062591976579641</v>
@@ -3027,13 +3033,13 @@
         <v>44358</v>
       </c>
       <c r="B108">
-        <v>0.8745003996802558</v>
+        <v>0.9930439376595932</v>
       </c>
       <c r="C108">
-        <v>0.9930439376595932</v>
+        <v>0.8744998947146768</v>
       </c>
       <c r="D108">
-        <v>0.9337721686699245</v>
+        <v>0.933771916187135</v>
       </c>
       <c r="E108">
         <v>1.056353667519487</v>
@@ -3047,13 +3053,13 @@
         <v>44362</v>
       </c>
       <c r="B109">
-        <v>0.8760991207034374</v>
+        <v>0.9857943705790848</v>
       </c>
       <c r="C109">
-        <v>0.9857943705790848</v>
+        <v>0.8760791745630658</v>
       </c>
       <c r="D109">
-        <v>0.9309467456412611</v>
+        <v>0.9309367725710753</v>
       </c>
       <c r="E109">
         <v>1.046575290830534</v>
@@ -3067,13 +3073,13 @@
         <v>44363</v>
       </c>
       <c r="B110">
-        <v>0.8665067945643485</v>
+        <v>0.9784274016025359</v>
       </c>
       <c r="C110">
-        <v>0.9784274016025359</v>
+        <v>0.8664982101495051</v>
       </c>
       <c r="D110">
-        <v>0.9224670980834422</v>
+        <v>0.9224628058760205</v>
       </c>
       <c r="E110">
         <v>1.031282638434078</v>
@@ -3087,13 +3093,13 @@
         <v>44364</v>
       </c>
       <c r="B111">
-        <v>0.8745003996802558</v>
+        <v>0.982037509905785</v>
       </c>
       <c r="C111">
-        <v>0.982037509905785</v>
+        <v>0.8744998947146768</v>
       </c>
       <c r="D111">
-        <v>0.9282689547930204</v>
+        <v>0.928268702310231</v>
       </c>
       <c r="E111">
         <v>1.03911664789834</v>
@@ -3107,13 +3113,13 @@
         <v>44365</v>
       </c>
       <c r="B112">
-        <v>0.8928856914468426</v>
+        <v>0.9696809603475096</v>
       </c>
       <c r="C112">
-        <v>0.9696809603475096</v>
+        <v>0.8928721836176037</v>
       </c>
       <c r="D112">
-        <v>0.9312833258971761</v>
+        <v>0.9312765719825566</v>
       </c>
       <c r="E112">
         <v>1.045648653784841</v>
@@ -3127,13 +3133,13 @@
         <v>44368</v>
       </c>
       <c r="B113">
-        <v>0.9264588329336531</v>
+        <v>0.9600246543981686</v>
       </c>
       <c r="C113">
-        <v>0.9600246543981686</v>
+        <v>0.9264582017266794</v>
       </c>
       <c r="D113">
-        <v>0.9432417436659108</v>
+        <v>0.9432414280624239</v>
       </c>
       <c r="E113">
         <v>1.053410416970965</v>
@@ -3147,13 +3153,13 @@
         <v>44369</v>
       </c>
       <c r="B114">
-        <v>0.9208633093525179</v>
+        <v>0.9653370901940067</v>
       </c>
       <c r="C114">
-        <v>0.9653370901940067</v>
+        <v>0.9208780795957044</v>
       </c>
       <c r="D114">
-        <v>0.9431001997732623</v>
+        <v>0.9431075848948556</v>
       </c>
       <c r="E114">
         <v>1.058532049862497</v>
@@ -3167,13 +3173,13 @@
         <v>44370</v>
       </c>
       <c r="B115">
-        <v>0.9200639488409272</v>
+        <v>0.9529511901617211</v>
       </c>
       <c r="C115">
-        <v>0.9529511901617211</v>
+        <v>0.9200884396715098</v>
       </c>
       <c r="D115">
-        <v>0.9365075695013242</v>
+        <v>0.9365198149166154</v>
       </c>
       <c r="E115">
         <v>1.066410035322148</v>
@@ -3187,13 +3193,13 @@
         <v>44371</v>
       </c>
       <c r="B116">
-        <v>0.9072741806554757</v>
+        <v>0.9544774148102492</v>
       </c>
       <c r="C116">
-        <v>0.9544774148102492</v>
+        <v>0.9072962728995578</v>
       </c>
       <c r="D116">
-        <v>0.9308757977328624</v>
+        <v>0.9308868438549035</v>
       </c>
       <c r="E116">
         <v>1.060900471328436</v>
@@ -3207,13 +3213,13 @@
         <v>44372</v>
       </c>
       <c r="B117">
-        <v>0.9096722621902478</v>
+        <v>0.9716767925802002</v>
       </c>
       <c r="C117">
-        <v>0.9716767925802002</v>
+        <v>0.9096651926721415</v>
       </c>
       <c r="D117">
-        <v>0.9406745273852239</v>
+        <v>0.9406709926261709</v>
       </c>
       <c r="E117">
         <v>1.070094595507224</v>
@@ -3227,19 +3233,199 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>0.9096722621902478</v>
+        <v>0.9862052772152271</v>
       </c>
       <c r="C118">
-        <v>0.9716767925802002</v>
+        <v>0.914455674878922</v>
       </c>
       <c r="D118">
-        <v>0.9406745273852239</v>
+        <v>0.9503304760470745</v>
       </c>
       <c r="E118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="F118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>0.9725573068005049</v>
+      </c>
+      <c r="C119">
+        <v>0.8952937460518005</v>
+      </c>
+      <c r="D119">
+        <v>0.9339255264261527</v>
+      </c>
+      <c r="E119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="F119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>0.9734378210208096</v>
+      </c>
+      <c r="C120">
+        <v>0.9080859128237524</v>
+      </c>
+      <c r="D120">
+        <v>0.940761866922281</v>
+      </c>
+      <c r="E120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="F120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>0.9803645328872062</v>
+      </c>
+      <c r="C121">
+        <v>0.8721309749420931</v>
+      </c>
+      <c r="D121">
+        <v>0.9262477539146496</v>
+      </c>
+      <c r="E121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="F121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9532153444278125</v>
+      </c>
+      <c r="C122">
+        <v>0.8441250789639924</v>
+      </c>
+      <c r="D122">
+        <v>0.8986702116959024</v>
+      </c>
+      <c r="E122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="F122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9479322591059846</v>
+      </c>
+      <c r="C123">
+        <v>0.8481259212465783</v>
+      </c>
+      <c r="D123">
+        <v>0.8980290901762814</v>
+      </c>
+      <c r="E123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="F123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.9433829356344106</v>
+      </c>
+      <c r="C124">
+        <v>0.8521267635291641</v>
+      </c>
+      <c r="D124">
+        <v>0.8977548495817873</v>
+      </c>
+      <c r="E124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="F124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>0.9463473335094362</v>
+      </c>
+      <c r="C125">
+        <v>0.8752895346388714</v>
+      </c>
+      <c r="D125">
+        <v>0.9108184340741539</v>
+      </c>
+      <c r="E125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="F125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9301458718558304</v>
+      </c>
+      <c r="C126">
+        <v>0.9080859128237524</v>
+      </c>
+      <c r="D126">
+        <v>0.9191158923397914</v>
+      </c>
+      <c r="E126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="F126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.9139150597282146</v>
+      </c>
+      <c r="C127">
+        <v>0.9008738681827754</v>
+      </c>
+      <c r="D127">
+        <v>0.9073944639554949</v>
+      </c>
+      <c r="E127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="F127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -3351,18 +3537,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -3394,90 +3580,81 @@
       <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2">
         <v>0.5</v>
       </c>
       <c r="J2">
-        <v>67.98</v>
+        <v>8.680999755859375</v>
       </c>
       <c r="K2">
-        <v>3.81</v>
+        <v>37.81980133056641</v>
       </c>
       <c r="L2">
-        <v>1.45</v>
-      </c>
-      <c r="M2">
-        <v>27.09</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>21.132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3">
         <v>0.5</v>
       </c>
       <c r="J3">
-        <v>41.16</v>
+        <v>3.740200042724609</v>
       </c>
       <c r="K3">
-        <v>9.26</v>
+        <v>66.89820098876953</v>
       </c>
       <c r="L3">
-        <v>13.51</v>
-      </c>
-      <c r="M3">
-        <v>21.13</v>
+        <v>27.0909</v>
       </c>
     </row>
   </sheetData>
@@ -3495,19 +3672,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3515,16 +3692,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
         <v>133</v>
@@ -3535,16 +3712,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
         <v>134</v>
@@ -3555,16 +3732,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
         <v>135</v>
@@ -3575,16 +3752,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
         <v>136</v>
@@ -3595,16 +3772,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
         <v>137</v>
@@ -3615,16 +3792,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
         <v>138</v>
@@ -3635,16 +3812,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
         <v>139</v>
@@ -3655,16 +3832,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
         <v>140</v>
@@ -3675,16 +3852,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" t="s">
         <v>141</v>
@@ -3695,16 +3872,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
@@ -3715,16 +3892,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
         <v>143</v>
@@ -3735,16 +3912,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
@@ -3755,13 +3932,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
         <v>125</v>
@@ -3775,16 +3952,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
         <v>146</v>
@@ -3795,16 +3972,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" t="s">
         <v>147</v>
@@ -3815,16 +3992,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F17" t="s">
         <v>148</v>
@@ -3835,16 +4012,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F18" t="s">
         <v>149</v>
@@ -3855,13 +4032,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
         <v>130</v>
@@ -3875,13 +4052,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
         <v>131</v>
@@ -3895,13 +4072,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
         <v>132</v>
@@ -3917,7 +4094,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3933,57 +4110,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
